--- a/biology/Histoire de la zoologie et de la botanique/Theodore_Dru_Alison_Cockerell/Theodore_Dru_Alison_Cockerell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodore_Dru_Alison_Cockerell/Theodore_Dru_Alison_Cockerell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodore Dru Alison Cockerell est un zoologiste américain d’origine britannique, né le 22 août 1866 à Norwood[Lequel ?] près de Londres et mort le 26 janvier 1948 à San Diego.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cockerell s’installe aux États-Unis en 1881.
 Il a suivi les cours de la Middlesex Hospital Medical School avant d'étudier la botanique sur le terrain dans le Colorado en 1887-1890. De 1891 à 1901, il fut conservateur du musée public de Kingston (Jamaïque), professeur d'entomologie à la  Station agricole expérimentale du Nouveau-Mexique. En 1900-1903, il fut maître-assistant en biologie à l'université du Nouveau-Mexique ; en 1903-1904 conservateur au Colorado College Museum et en 1904 il devint chargé de cours en entomologie et en 1906 professeur de zoologie systématique à l'université du Colorado.
@@ -546,13 +560,15 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1910 : Some Bees of the Genus Augochlora from West Indies
 1910 : The Scales of the Mormyrid Fishes
 1913 : Observations on Fish Scales
-1913 : Some Fossil Insects from Florissant (Colorado)[3].
-1920 : Zöology; a textbook for colleges and universities (World book company, Yonkers-on-Hudson, N. Y.)[4].</t>
+1913 : Some Fossil Insects from Florissant (Colorado).
+1920 : Zöology; a textbook for colleges and universities (World book company, Yonkers-on-Hudson, N. Y.).</t>
         </is>
       </c>
     </row>
